--- a/draw_graph/TRUST/highDegreeVSlowDegree.xlsx
+++ b/draw_graph/TRUST/highDegreeVSlowDegree.xlsx
@@ -8,29 +8,80 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TRUST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3075A4-1AF8-487A-A01C-3982DD28CC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F255D8C0-CE2B-4CF5-982E-B2F76233666D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>lowDegree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>highDegree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage_low</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage_high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>AC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -55,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Am</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,10 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,23 +142,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lowDegree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>highDegree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
+    <t>AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,19 +184,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,7 +239,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,187 +520,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f>D2-C2</f>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="C2">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D20">H2:H20/1000</f>
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="E2">
+        <f>B2/D2</f>
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="F2">
+        <f>C2/D2</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="H2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B20" si="0">D3-C3</f>
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C3">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="D3">
+        <v>5.8E-5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="1">B3/D3</f>
+        <v>0.32758620689655171</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="2">C3/D3</f>
+        <v>0.67241379310344829</v>
+      </c>
+      <c r="H3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.3099999999999999E-4</v>
+      </c>
+      <c r="C4">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D4">
+        <v>2.0799999999999999E-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.62980769230769229</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.37019230769230771</v>
+      </c>
+      <c r="H4">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>3.0200000000000002E-4</v>
+      </c>
+      <c r="C5">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="D5">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.80533333333333335</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.19466666666666665</v>
+      </c>
+      <c r="H5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.8000000000000028E-5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.6200000000000001E-4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>9.4117647058823584E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90588235294117647</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>3.86E-4</v>
+      </c>
+      <c r="C7">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="D7">
+        <v>4.64E-4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.8318965517241379</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.16810344827586207</v>
+      </c>
+      <c r="H7">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.510000000000001E-4</v>
+      </c>
+      <c r="C8">
+        <v>3.4E-5</v>
+      </c>
+      <c r="D8">
+        <v>6.8500000000000006E-4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.95036496350364974</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>4.9635036496350357E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7.0800000000000008E-4</v>
+      </c>
+      <c r="C9">
+        <v>3.4E-5</v>
+      </c>
+      <c r="D9">
+        <v>7.4200000000000004E-4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.95417789757412408</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>4.5822102425876012E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.74199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.8650000000000001E-3</v>
+      </c>
+      <c r="C10">
+        <v>7.4700000000000005E-4</v>
+      </c>
+      <c r="D10">
+        <v>2.6120000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.71401225114854516</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.28598774885145484</v>
+      </c>
+      <c r="H10">
+        <v>2.6120000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8.1799999999999983E-4</v>
+      </c>
+      <c r="C11">
+        <v>7.2300000000000001E-4</v>
+      </c>
+      <c r="D11">
+        <v>1.5409999999999998E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.53082414016872159</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.46917585983127846</v>
+      </c>
+      <c r="H11">
+        <v>1.5409999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.7550000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.71E-4</v>
+      </c>
+      <c r="D12">
+        <v>3.326E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.82832230907997595</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.17167769092002405</v>
+      </c>
+      <c r="H12">
+        <v>3.3260000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6699999999999997E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.7019999999999996E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.99438793405822523</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>5.6120659417748164E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>8.9730000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="D14">
+        <v>9.0050000000000009E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.99644641865630201</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3.5535813436979452E-3</v>
+      </c>
+      <c r="H14">
+        <v>9.0050000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.2057E-2</v>
+      </c>
+      <c r="C15">
+        <v>6.7270000000000003E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.8784000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.76629377431906609</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.23370622568093385</v>
+      </c>
+      <c r="H15">
+        <v>28.783999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.1663999999999999E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.4040000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.3068E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.89256198347107429</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.10743801652892562</v>
+      </c>
+      <c r="H16">
+        <v>13.068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.5595000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5370000000000002E-3</v>
+      </c>
+      <c r="D17">
+        <v>1.8132000000000002E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.8600816236487977</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.1399183763512023</v>
+      </c>
+      <c r="H17">
+        <v>18.132000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>6.7350999999999994E-2</v>
+      </c>
+      <c r="C18">
+        <v>2.6303E-2</v>
+      </c>
+      <c r="D18">
+        <v>9.3654000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.71914707326969474</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.28085292673030515</v>
+      </c>
+      <c r="H18">
+        <v>93.653999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0.73267400000000027</v>
+      </c>
+      <c r="C19">
+        <v>2.5537529999999999</v>
+      </c>
+      <c r="D19">
+        <v>3.2864270000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.22293938067086239</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.77706061932913761</v>
+      </c>
+      <c r="H19">
+        <v>3286.4270000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8.8999999999999995E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9.7E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3.4400000000000001E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>6.3199999999999997E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4.2900000000000002E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5.5599999999999996E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>9.1299999999999997E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>9.6699999999999998E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3.8709999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1.838E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>4.4850000000000003E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>8.0149999999999996E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1.2658000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3.3708000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1.7707000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2.3163E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>9.5170000000000005E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1.0517080000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.755503</v>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.2896339999999999</v>
+      </c>
+      <c r="C20">
+        <v>0.93720499999999995</v>
+      </c>
+      <c r="D20">
+        <v>2.226839</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.57913212405566816</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.42086787594433184</v>
+      </c>
+      <c r="H20">
+        <v>2226.8389999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <f>AVERAGE(E2:E20)</f>
+        <v>0.68708295589937385</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>